--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.170749</v>
+        <v>2.723611</v>
       </c>
       <c r="H2">
-        <v>6.341498</v>
+        <v>5.447222</v>
       </c>
       <c r="I2">
-        <v>0.02706244618217393</v>
+        <v>0.02001000662819609</v>
       </c>
       <c r="J2">
-        <v>0.0207101873791657</v>
+        <v>0.01600264770010783</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.104922999999999</v>
+        <v>3.47906</v>
       </c>
       <c r="N2">
-        <v>16.209846</v>
+        <v>6.95812</v>
       </c>
       <c r="O2">
-        <v>0.6680996714163102</v>
+        <v>0.7459273529887555</v>
       </c>
       <c r="P2">
-        <v>0.5878813544784527</v>
+        <v>0.6972038978616911</v>
       </c>
       <c r="Q2">
-        <v>25.698676497327</v>
+        <v>9.475606085660001</v>
       </c>
       <c r="R2">
-        <v>102.794705989308</v>
+        <v>37.90242434264</v>
       </c>
       <c r="S2">
-        <v>0.01808041140203198</v>
+        <v>0.01492601127745776</v>
       </c>
       <c r="T2">
-        <v>0.01217513300796649</v>
+        <v>0.01115710835262261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.170749</v>
+        <v>2.723611</v>
       </c>
       <c r="H3">
-        <v>6.341498</v>
+        <v>5.447222</v>
       </c>
       <c r="I3">
-        <v>0.02706244618217393</v>
+        <v>0.02001000662819609</v>
       </c>
       <c r="J3">
-        <v>0.0207101873791657</v>
+        <v>0.01600264770010783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.413805</v>
       </c>
       <c r="O3">
-        <v>0.03884728067730096</v>
+        <v>0.1010422184241593</v>
       </c>
       <c r="P3">
-        <v>0.05127436734244167</v>
+        <v>0.1416633166453508</v>
       </c>
       <c r="Q3">
-        <v>1.494273596648333</v>
+        <v>1.283551616618333</v>
       </c>
       <c r="R3">
-        <v>8.965641579889999</v>
+        <v>7.701309699709999</v>
       </c>
       <c r="S3">
-        <v>0.001051302442653262</v>
+        <v>0.002021855460395066</v>
       </c>
       <c r="T3">
-        <v>0.001061901755410141</v>
+        <v>0.002266988148304371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.170749</v>
+        <v>2.723611</v>
       </c>
       <c r="H4">
-        <v>6.341498</v>
+        <v>5.447222</v>
       </c>
       <c r="I4">
-        <v>0.02706244618217393</v>
+        <v>0.02001000662819609</v>
       </c>
       <c r="J4">
-        <v>0.0207101873791657</v>
+        <v>0.01600264770010783</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7156724999999999</v>
+        <v>0.03320733333333333</v>
       </c>
       <c r="N4">
-        <v>1.431345</v>
+        <v>0.099622</v>
       </c>
       <c r="O4">
-        <v>0.05899384387633162</v>
+        <v>0.007119813470635343</v>
       </c>
       <c r="P4">
-        <v>0.05191048929927902</v>
+        <v>0.009982128320980005</v>
       </c>
       <c r="Q4">
-        <v>2.2692178637025</v>
+        <v>0.09044385834733333</v>
       </c>
       <c r="R4">
-        <v>9.076871454809998</v>
+        <v>0.542663150084</v>
       </c>
       <c r="S4">
-        <v>0.001596517724982795</v>
+        <v>0.000142467514738933</v>
       </c>
       <c r="T4">
-        <v>0.001075075960332244</v>
+        <v>0.0001597404828179119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.170749</v>
+        <v>2.723611</v>
       </c>
       <c r="H5">
-        <v>6.341498</v>
+        <v>5.447222</v>
       </c>
       <c r="I5">
-        <v>0.02706244618217393</v>
+        <v>0.02001000662819609</v>
       </c>
       <c r="J5">
-        <v>0.0207101873791657</v>
+        <v>0.01600264770010783</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.839444333333333</v>
+        <v>0.5331245</v>
       </c>
       <c r="N5">
-        <v>8.518333</v>
+        <v>1.066249</v>
       </c>
       <c r="O5">
-        <v>0.2340592040300573</v>
+        <v>0.1143044808363333</v>
       </c>
       <c r="P5">
-        <v>0.3089337888798266</v>
+        <v>0.1068381917660417</v>
       </c>
       <c r="Q5">
-        <v>9.003165280472333</v>
+        <v>1.4520237525695</v>
       </c>
       <c r="R5">
-        <v>54.018991682834</v>
+        <v>5.808095010278</v>
       </c>
       <c r="S5">
-        <v>0.006334214612505893</v>
+        <v>0.002287233419167542</v>
       </c>
       <c r="T5">
-        <v>0.006398076655456826</v>
+        <v>0.001709693943748527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.15926</v>
+        <v>2.723611</v>
       </c>
       <c r="H6">
-        <v>201.47778</v>
+        <v>5.447222</v>
       </c>
       <c r="I6">
-        <v>0.5732064756259881</v>
+        <v>0.02001000662819609</v>
       </c>
       <c r="J6">
-        <v>0.6579900484930097</v>
+        <v>0.01600264770010783</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.104922999999999</v>
+        <v>0.1474133333333333</v>
       </c>
       <c r="N6">
-        <v>16.209846</v>
+        <v>0.44224</v>
       </c>
       <c r="O6">
-        <v>0.6680996714163102</v>
+        <v>0.03160613428011658</v>
       </c>
       <c r="P6">
-        <v>0.5878813544784527</v>
+        <v>0.0443124654059364</v>
       </c>
       <c r="Q6">
-        <v>544.32063103698</v>
+        <v>0.4014965762133333</v>
       </c>
       <c r="R6">
-        <v>3265.92378622188</v>
+        <v>2.40897945728</v>
       </c>
       <c r="S6">
-        <v>0.3829590580194239</v>
+        <v>0.0006324389564367885</v>
       </c>
       <c r="T6">
-        <v>0.3868200809414133</v>
+        <v>0.0007091167726144162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>201.47778</v>
       </c>
       <c r="I7">
-        <v>0.5732064756259881</v>
+        <v>0.4934101227175043</v>
       </c>
       <c r="J7">
-        <v>0.6579900484930097</v>
+        <v>0.5918939842620389</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4712683333333333</v>
+        <v>3.47906</v>
       </c>
       <c r="N7">
-        <v>1.413805</v>
+        <v>6.95812</v>
       </c>
       <c r="O7">
-        <v>0.03884728067730096</v>
+        <v>0.7459273529887555</v>
       </c>
       <c r="P7">
-        <v>0.05127436734244167</v>
+        <v>0.6972038978616911</v>
       </c>
       <c r="Q7">
-        <v>31.6500325281</v>
+        <v>233.6510950956</v>
       </c>
       <c r="R7">
-        <v>284.8502927529</v>
+        <v>1401.9065705736</v>
       </c>
       <c r="S7">
-        <v>0.02226751284468923</v>
+        <v>0.3680481067765249</v>
       </c>
       <c r="T7">
-        <v>0.03373802345410159</v>
+        <v>0.4126707929483799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>201.47778</v>
       </c>
       <c r="I8">
-        <v>0.5732064756259881</v>
+        <v>0.4934101227175043</v>
       </c>
       <c r="J8">
-        <v>0.6579900484930097</v>
+        <v>0.5918939842620389</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7156724999999999</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N8">
-        <v>1.431345</v>
+        <v>1.413805</v>
       </c>
       <c r="O8">
-        <v>0.05899384387633162</v>
+        <v>0.1010422184241593</v>
       </c>
       <c r="P8">
-        <v>0.05191048929927902</v>
+        <v>0.1416633166453508</v>
       </c>
       <c r="Q8">
-        <v>48.06403550234999</v>
+        <v>31.6500325281</v>
       </c>
       <c r="R8">
-        <v>288.3842130140999</v>
+        <v>284.8502927529</v>
       </c>
       <c r="S8">
-        <v>0.03381565333198183</v>
+        <v>0.04985525339231334</v>
       </c>
       <c r="T8">
-        <v>0.03415658537132846</v>
+        <v>0.08384966491299149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>201.47778</v>
       </c>
       <c r="I9">
-        <v>0.5732064756259881</v>
+        <v>0.4934101227175043</v>
       </c>
       <c r="J9">
-        <v>0.6579900484930097</v>
+        <v>0.5918939842620389</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.839444333333333</v>
+        <v>0.03320733333333333</v>
       </c>
       <c r="N9">
-        <v>8.518333</v>
+        <v>0.099622</v>
       </c>
       <c r="O9">
-        <v>0.2340592040300573</v>
+        <v>0.007119813470635343</v>
       </c>
       <c r="P9">
-        <v>0.3089337888798266</v>
+        <v>0.009982128320980005</v>
       </c>
       <c r="Q9">
-        <v>190.69498023786</v>
+        <v>2.23017993324</v>
       </c>
       <c r="R9">
-        <v>1716.25482214074</v>
+        <v>20.07161939916</v>
       </c>
       <c r="S9">
-        <v>0.1341642514298932</v>
+        <v>0.003512988038271925</v>
       </c>
       <c r="T9">
-        <v>0.2032753587261663</v>
+        <v>0.005908361703319791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.382301</v>
+        <v>67.15926</v>
       </c>
       <c r="H10">
-        <v>1.146903</v>
+        <v>201.47778</v>
       </c>
       <c r="I10">
-        <v>0.003262951510160935</v>
+        <v>0.4934101227175043</v>
       </c>
       <c r="J10">
-        <v>0.003745578100904121</v>
+        <v>0.5918939842620389</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.104922999999999</v>
+        <v>0.5331245</v>
       </c>
       <c r="N10">
-        <v>16.209846</v>
+        <v>1.066249</v>
       </c>
       <c r="O10">
-        <v>0.6680996714163102</v>
+        <v>0.1143044808363333</v>
       </c>
       <c r="P10">
-        <v>0.5878813544784527</v>
+        <v>0.1068381917660417</v>
       </c>
       <c r="Q10">
-        <v>3.098520167823</v>
+        <v>35.80424690787</v>
       </c>
       <c r="R10">
-        <v>18.591121006938</v>
+        <v>214.82548144722</v>
       </c>
       <c r="S10">
-        <v>0.002179976831785874</v>
+        <v>0.05639898791661584</v>
       </c>
       <c r="T10">
-        <v>0.002201955527264345</v>
+        <v>0.0632368829957542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.382301</v>
+        <v>67.15926</v>
       </c>
       <c r="H11">
-        <v>1.146903</v>
+        <v>201.47778</v>
       </c>
       <c r="I11">
-        <v>0.003262951510160935</v>
+        <v>0.4934101227175043</v>
       </c>
       <c r="J11">
-        <v>0.003745578100904121</v>
+        <v>0.5918939842620389</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4712683333333333</v>
+        <v>0.1474133333333333</v>
       </c>
       <c r="N11">
-        <v>1.413805</v>
+        <v>0.44224</v>
       </c>
       <c r="O11">
-        <v>0.03884728067730096</v>
+        <v>0.03160613428011658</v>
       </c>
       <c r="P11">
-        <v>0.05127436734244167</v>
+        <v>0.0443124654059364</v>
       </c>
       <c r="Q11">
-        <v>0.1801663551016667</v>
+        <v>9.900170380799999</v>
       </c>
       <c r="R11">
-        <v>1.621497195915</v>
+        <v>89.1015334272</v>
       </c>
       <c r="S11">
-        <v>0.0001267567931516449</v>
+        <v>0.01559478659377824</v>
       </c>
       <c r="T11">
-        <v>0.000192052147455563</v>
+        <v>0.02622828170159346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.382301</v>
+        <v>0.1801576666666667</v>
       </c>
       <c r="H12">
-        <v>1.146903</v>
+        <v>0.540473</v>
       </c>
       <c r="I12">
-        <v>0.003262951510160935</v>
+        <v>0.001323594340058232</v>
       </c>
       <c r="J12">
-        <v>0.003745578100904121</v>
+        <v>0.00158778162711569</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7156724999999999</v>
+        <v>3.47906</v>
       </c>
       <c r="N12">
-        <v>1.431345</v>
+        <v>6.95812</v>
       </c>
       <c r="O12">
-        <v>0.05899384387633162</v>
+        <v>0.7459273529887555</v>
       </c>
       <c r="P12">
-        <v>0.05191048929927902</v>
+        <v>0.6972038978616911</v>
       </c>
       <c r="Q12">
-        <v>0.2736023124225</v>
+        <v>0.6267793317933333</v>
       </c>
       <c r="R12">
-        <v>1.641613874535</v>
+        <v>3.76067599076</v>
       </c>
       <c r="S12">
-        <v>0.0001924940519664747</v>
+        <v>0.0009873052225105358</v>
       </c>
       <c r="T12">
-        <v>0.0001944347919265972</v>
+        <v>0.001107007539378237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.382301</v>
+        <v>0.1801576666666667</v>
       </c>
       <c r="H13">
-        <v>1.146903</v>
+        <v>0.540473</v>
       </c>
       <c r="I13">
-        <v>0.003262951510160935</v>
+        <v>0.001323594340058232</v>
       </c>
       <c r="J13">
-        <v>0.003745578100904121</v>
+        <v>0.00158778162711569</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.839444333333333</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N13">
-        <v>8.518333</v>
+        <v>1.413805</v>
       </c>
       <c r="O13">
-        <v>0.2340592040300573</v>
+        <v>0.1010422184241593</v>
       </c>
       <c r="P13">
-        <v>0.3089337888798266</v>
+        <v>0.1416633166453508</v>
       </c>
       <c r="Q13">
-        <v>1.085522408077667</v>
+        <v>0.08490260330722223</v>
       </c>
       <c r="R13">
-        <v>9.769701672699</v>
+        <v>0.7641234297649999</v>
       </c>
       <c r="S13">
-        <v>0.0007637238332569419</v>
+        <v>0.0001337389084131449</v>
       </c>
       <c r="T13">
-        <v>0.001157135634257616</v>
+        <v>0.0002249304114057602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>42.119891</v>
+        <v>0.1801576666666667</v>
       </c>
       <c r="H14">
-        <v>84.23978200000001</v>
+        <v>0.540473</v>
       </c>
       <c r="I14">
-        <v>0.3594946441318856</v>
+        <v>0.001323594340058232</v>
       </c>
       <c r="J14">
-        <v>0.2751119167742496</v>
+        <v>0.00158778162711569</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>8.104922999999999</v>
+        <v>0.03320733333333333</v>
       </c>
       <c r="N14">
-        <v>16.209846</v>
+        <v>0.099622</v>
       </c>
       <c r="O14">
-        <v>0.6680996714163102</v>
+        <v>0.007119813470635343</v>
       </c>
       <c r="P14">
-        <v>0.5878813544784527</v>
+        <v>0.009982128320980005</v>
       </c>
       <c r="Q14">
-        <v>341.378473323393</v>
+        <v>0.005982555689555555</v>
       </c>
       <c r="R14">
-        <v>1365.513893293572</v>
+        <v>0.053843001206</v>
       </c>
       <c r="S14">
-        <v>0.2401782536204361</v>
+        <v>9.4237448120033E-06</v>
       </c>
       <c r="T14">
-        <v>0.1617331662664092</v>
+        <v>1.584943994756324E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>42.119891</v>
+        <v>0.1801576666666667</v>
       </c>
       <c r="H15">
-        <v>84.23978200000001</v>
+        <v>0.540473</v>
       </c>
       <c r="I15">
-        <v>0.3594946441318856</v>
+        <v>0.001323594340058232</v>
       </c>
       <c r="J15">
-        <v>0.2751119167742496</v>
+        <v>0.00158778162711569</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4712683333333333</v>
+        <v>0.5331245</v>
       </c>
       <c r="N15">
-        <v>1.413805</v>
+        <v>1.066249</v>
       </c>
       <c r="O15">
-        <v>0.03884728067730096</v>
+        <v>0.1143044808363333</v>
       </c>
       <c r="P15">
-        <v>0.05127436734244167</v>
+        <v>0.1068381917660417</v>
       </c>
       <c r="Q15">
-        <v>19.84977083175167</v>
+        <v>0.09604646596283332</v>
       </c>
       <c r="R15">
-        <v>119.09862499051</v>
+        <v>0.576278795777</v>
       </c>
       <c r="S15">
-        <v>0.01396538934257779</v>
+        <v>0.0001512927638782654</v>
       </c>
       <c r="T15">
-        <v>0.01410618948096611</v>
+        <v>0.0001696357179603838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>42.119891</v>
+        <v>0.1801576666666667</v>
       </c>
       <c r="H16">
-        <v>84.23978200000001</v>
+        <v>0.540473</v>
       </c>
       <c r="I16">
-        <v>0.3594946441318856</v>
+        <v>0.001323594340058232</v>
       </c>
       <c r="J16">
-        <v>0.2751119167742496</v>
+        <v>0.00158778162711569</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7156724999999999</v>
+        <v>0.1474133333333333</v>
       </c>
       <c r="N16">
-        <v>1.431345</v>
+        <v>0.44224</v>
       </c>
       <c r="O16">
-        <v>0.05899384387633162</v>
+        <v>0.03160613428011658</v>
       </c>
       <c r="P16">
-        <v>0.05191048929927902</v>
+        <v>0.0443124654059364</v>
       </c>
       <c r="Q16">
-        <v>30.1440476916975</v>
+        <v>0.02655764216888888</v>
       </c>
       <c r="R16">
-        <v>120.57619076679</v>
+        <v>0.23901877952</v>
       </c>
       <c r="S16">
-        <v>0.02120797091029385</v>
+        <v>4.183370044428278E-05</v>
       </c>
       <c r="T16">
-        <v>0.01428119421181382</v>
+        <v>7.035851842374541E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.119891</v>
+        <v>65.218689</v>
       </c>
       <c r="H17">
-        <v>84.23978200000001</v>
+        <v>130.437378</v>
       </c>
       <c r="I17">
-        <v>0.3594946441318856</v>
+        <v>0.4791530064947819</v>
       </c>
       <c r="J17">
-        <v>0.2751119167742496</v>
+        <v>0.3831941138179784</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.839444333333333</v>
+        <v>3.47906</v>
       </c>
       <c r="N17">
-        <v>8.518333</v>
+        <v>6.95812</v>
       </c>
       <c r="O17">
-        <v>0.2340592040300573</v>
+        <v>0.7459273529887555</v>
       </c>
       <c r="P17">
-        <v>0.3089337888798266</v>
+        <v>0.6972038978616911</v>
       </c>
       <c r="Q17">
-        <v>119.5970858205677</v>
+        <v>226.89973215234</v>
       </c>
       <c r="R17">
-        <v>717.5825149234061</v>
+        <v>907.59892860936</v>
       </c>
       <c r="S17">
-        <v>0.08414303025857785</v>
+        <v>0.3574133338112566</v>
       </c>
       <c r="T17">
-        <v>0.08499136681506043</v>
+        <v>0.2671644297915511</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>65.218689</v>
+      </c>
+      <c r="H18">
+        <v>130.437378</v>
+      </c>
+      <c r="I18">
+        <v>0.4791530064947819</v>
+      </c>
+      <c r="J18">
+        <v>0.3831941138179784</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.918319666666666</v>
-      </c>
-      <c r="H18">
-        <v>5.754958999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.01637292095317936</v>
-      </c>
-      <c r="J18">
-        <v>0.01879465691693288</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.104922999999999</v>
+        <v>0.4712683333333333</v>
       </c>
       <c r="N18">
-        <v>16.209846</v>
+        <v>1.413805</v>
       </c>
       <c r="O18">
-        <v>0.6680996714163102</v>
+        <v>0.1010422184241593</v>
       </c>
       <c r="P18">
-        <v>0.5878813544784527</v>
+        <v>0.1416633166453508</v>
       </c>
       <c r="Q18">
-        <v>15.547833187719</v>
+        <v>30.735502867215</v>
       </c>
       <c r="R18">
-        <v>93.28699912631399</v>
+        <v>184.41301720329</v>
       </c>
       <c r="S18">
-        <v>0.01093874310894435</v>
+        <v>0.04841468274083839</v>
       </c>
       <c r="T18">
-        <v>0.01104902836528432</v>
+        <v>0.05428454908243086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.918319666666666</v>
+        <v>65.218689</v>
       </c>
       <c r="H19">
-        <v>5.754958999999999</v>
+        <v>130.437378</v>
       </c>
       <c r="I19">
-        <v>0.01637292095317936</v>
+        <v>0.4791530064947819</v>
       </c>
       <c r="J19">
-        <v>0.01879465691693288</v>
+        <v>0.3831941138179784</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4712683333333333</v>
+        <v>0.03320733333333333</v>
       </c>
       <c r="N19">
-        <v>1.413805</v>
+        <v>0.099622</v>
       </c>
       <c r="O19">
-        <v>0.03884728067730096</v>
+        <v>0.007119813470635343</v>
       </c>
       <c r="P19">
-        <v>0.05127436734244167</v>
+        <v>0.009982128320980005</v>
       </c>
       <c r="Q19">
-        <v>0.9040433121105554</v>
+        <v>2.165738745186</v>
       </c>
       <c r="R19">
-        <v>8.136389808994998</v>
+        <v>12.994432471116</v>
       </c>
       <c r="S19">
-        <v>0.0006360434557754205</v>
+        <v>0.003411480030136972</v>
       </c>
       <c r="T19">
-        <v>0.0009636841428339789</v>
+        <v>0.003825092815975278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.918319666666666</v>
+        <v>65.218689</v>
       </c>
       <c r="H20">
-        <v>5.754958999999999</v>
+        <v>130.437378</v>
       </c>
       <c r="I20">
-        <v>0.01637292095317936</v>
+        <v>0.4791530064947819</v>
       </c>
       <c r="J20">
-        <v>0.01879465691693288</v>
+        <v>0.3831941138179784</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7156724999999999</v>
+        <v>0.5331245</v>
       </c>
       <c r="N20">
-        <v>1.431345</v>
+        <v>1.066249</v>
       </c>
       <c r="O20">
-        <v>0.05899384387633162</v>
+        <v>0.1143044808363333</v>
       </c>
       <c r="P20">
-        <v>0.05191048929927902</v>
+        <v>0.1068381917660417</v>
       </c>
       <c r="Q20">
-        <v>1.3728886316425</v>
+        <v>34.7696809637805</v>
       </c>
       <c r="R20">
-        <v>8.237331789854998</v>
+        <v>139.078723855122</v>
       </c>
       <c r="S20">
-        <v>0.0009659015425113817</v>
+        <v>0.05476933564855428</v>
       </c>
       <c r="T20">
-        <v>0.0009756398367700647</v>
+        <v>0.0409397662157036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.918319666666666</v>
+        <v>65.218689</v>
       </c>
       <c r="H21">
-        <v>5.754958999999999</v>
+        <v>130.437378</v>
       </c>
       <c r="I21">
-        <v>0.01637292095317936</v>
+        <v>0.4791530064947819</v>
       </c>
       <c r="J21">
-        <v>0.01879465691693288</v>
+        <v>0.3831941138179784</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.839444333333333</v>
+        <v>0.1474133333333333</v>
       </c>
       <c r="N21">
-        <v>8.518333</v>
+        <v>0.44224</v>
       </c>
       <c r="O21">
-        <v>0.2340592040300573</v>
+        <v>0.03160613428011658</v>
       </c>
       <c r="P21">
-        <v>0.3089337888798266</v>
+        <v>0.0443124654059364</v>
       </c>
       <c r="Q21">
-        <v>5.446961907038554</v>
+        <v>9.614104341119999</v>
       </c>
       <c r="R21">
-        <v>49.022657163347</v>
+        <v>57.68462604671999</v>
       </c>
       <c r="S21">
-        <v>0.003832232845948207</v>
+        <v>0.01514417426399565</v>
       </c>
       <c r="T21">
-        <v>0.005806304572044516</v>
+        <v>0.01698027591231763</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.413647666666666</v>
+        <v>0.4977636666666667</v>
       </c>
       <c r="H22">
-        <v>7.240943</v>
+        <v>1.493291</v>
       </c>
       <c r="I22">
-        <v>0.02060056159661214</v>
+        <v>0.003657003246526464</v>
       </c>
       <c r="J22">
-        <v>0.02364761233573806</v>
+        <v>0.00438693517296371</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.104922999999999</v>
+        <v>3.47906</v>
       </c>
       <c r="N22">
-        <v>16.209846</v>
+        <v>6.95812</v>
       </c>
       <c r="O22">
-        <v>0.6680996714163102</v>
+        <v>0.7459273529887555</v>
       </c>
       <c r="P22">
-        <v>0.5878813544784527</v>
+        <v>0.6972038978616911</v>
       </c>
       <c r="Q22">
-        <v>19.562428487463</v>
+        <v>1.731749662153333</v>
       </c>
       <c r="R22">
-        <v>117.374570924778</v>
+        <v>10.39049797292</v>
       </c>
       <c r="S22">
-        <v>0.01376322843368803</v>
+        <v>0.00272785875155277</v>
       </c>
       <c r="T22">
-        <v>0.01390199037011506</v>
+        <v>0.003058588302256851</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.413647666666666</v>
+        <v>0.4977636666666667</v>
       </c>
       <c r="H23">
-        <v>7.240943</v>
+        <v>1.493291</v>
       </c>
       <c r="I23">
-        <v>0.02060056159661214</v>
+        <v>0.003657003246526464</v>
       </c>
       <c r="J23">
-        <v>0.02364761233573806</v>
+        <v>0.00438693517296371</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>1.413805</v>
       </c>
       <c r="O23">
-        <v>0.03884728067730096</v>
+        <v>0.1010422184241593</v>
       </c>
       <c r="P23">
-        <v>0.05127436734244167</v>
+        <v>0.1416633166453508</v>
       </c>
       <c r="Q23">
-        <v>1.137475713123889</v>
+        <v>0.2345802535838889</v>
       </c>
       <c r="R23">
-        <v>10.237281418115</v>
+        <v>2.111222282255</v>
       </c>
       <c r="S23">
-        <v>0.000800275798453619</v>
+        <v>0.0003695117208133868</v>
       </c>
       <c r="T23">
-        <v>0.001212516361674288</v>
+        <v>0.0006214677865101848</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.413647666666666</v>
+        <v>0.4977636666666667</v>
       </c>
       <c r="H24">
-        <v>7.240943</v>
+        <v>1.493291</v>
       </c>
       <c r="I24">
-        <v>0.02060056159661214</v>
+        <v>0.003657003246526464</v>
       </c>
       <c r="J24">
-        <v>0.02364761233573806</v>
+        <v>0.00438693517296371</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.7156724999999999</v>
+        <v>0.03320733333333333</v>
       </c>
       <c r="N24">
-        <v>1.431345</v>
+        <v>0.099622</v>
       </c>
       <c r="O24">
-        <v>0.05899384387633162</v>
+        <v>0.007119813470635343</v>
       </c>
       <c r="P24">
-        <v>0.05191048929927902</v>
+        <v>0.009982128320980005</v>
       </c>
       <c r="Q24">
-        <v>1.7273812597225</v>
+        <v>0.01652940400022222</v>
       </c>
       <c r="R24">
-        <v>10.364287558335</v>
+        <v>0.148764636002</v>
       </c>
       <c r="S24">
-        <v>0.001215306314595289</v>
+        <v>2.60371809767763E-05</v>
       </c>
       <c r="T24">
-        <v>0.001227559127107829</v>
+        <v>4.379094983234436E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4977636666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.493291</v>
+      </c>
+      <c r="I25">
+        <v>0.003657003246526464</v>
+      </c>
+      <c r="J25">
+        <v>0.00438693517296371</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5331245</v>
+      </c>
+      <c r="N25">
+        <v>1.066249</v>
+      </c>
+      <c r="O25">
+        <v>0.1143044808363333</v>
+      </c>
+      <c r="P25">
+        <v>0.1068381917660417</v>
+      </c>
+      <c r="Q25">
+        <v>0.2653700059098333</v>
+      </c>
+      <c r="R25">
+        <v>1.592220035459</v>
+      </c>
+      <c r="S25">
+        <v>0.0004180118575109929</v>
+      </c>
+      <c r="T25">
+        <v>0.0004686922212742903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4977636666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.493291</v>
+      </c>
+      <c r="I26">
+        <v>0.003657003246526464</v>
+      </c>
+      <c r="J26">
+        <v>0.00438693517296371</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1474133333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.44224</v>
+      </c>
+      <c r="O26">
+        <v>0.03160613428011658</v>
+      </c>
+      <c r="P26">
+        <v>0.0443124654059364</v>
+      </c>
+      <c r="Q26">
+        <v>0.07337700131555555</v>
+      </c>
+      <c r="R26">
+        <v>0.6603930118399999</v>
+      </c>
+      <c r="S26">
+        <v>0.0001155837356725377</v>
+      </c>
+      <c r="T26">
+        <v>0.00019439591309004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.3329673333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.998902</v>
+      </c>
+      <c r="I27">
+        <v>0.002446266572933057</v>
+      </c>
+      <c r="J27">
+        <v>0.002934537419795469</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.47906</v>
+      </c>
+      <c r="N27">
+        <v>6.95812</v>
+      </c>
+      <c r="O27">
+        <v>0.7459273529887555</v>
+      </c>
+      <c r="P27">
+        <v>0.6972038978616911</v>
+      </c>
+      <c r="Q27">
+        <v>1.158413330706667</v>
+      </c>
+      <c r="R27">
+        <v>6.950479984239999</v>
+      </c>
+      <c r="S27">
+        <v>0.00182473714945283</v>
+      </c>
+      <c r="T27">
+        <v>0.002045970927502391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.3329673333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.998902</v>
+      </c>
+      <c r="I28">
+        <v>0.002446266572933057</v>
+      </c>
+      <c r="J28">
+        <v>0.002934537419795469</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4712683333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.413805</v>
+      </c>
+      <c r="O28">
+        <v>0.1010422184241593</v>
+      </c>
+      <c r="P28">
+        <v>0.1416633166453508</v>
+      </c>
+      <c r="Q28">
+        <v>0.1569169602344445</v>
+      </c>
+      <c r="R28">
+        <v>1.41225264211</v>
+      </c>
+      <c r="S28">
+        <v>0.0002471762013860217</v>
+      </c>
+      <c r="T28">
+        <v>0.0004157163037081162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.3329673333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.998902</v>
+      </c>
+      <c r="I29">
+        <v>0.002446266572933057</v>
+      </c>
+      <c r="J29">
+        <v>0.002934537419795469</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.03320733333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.099622</v>
+      </c>
+      <c r="O29">
+        <v>0.007119813470635343</v>
+      </c>
+      <c r="P29">
+        <v>0.009982128320980005</v>
+      </c>
+      <c r="Q29">
+        <v>0.01105695722711111</v>
+      </c>
+      <c r="R29">
+        <v>0.099512615044</v>
+      </c>
+      <c r="S29">
+        <v>1.741696169873374E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.929292908711594E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.3329673333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.998902</v>
+      </c>
+      <c r="I30">
+        <v>0.002446266572933057</v>
+      </c>
+      <c r="J30">
+        <v>0.002934537419795469</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5331245</v>
+      </c>
+      <c r="N30">
+        <v>1.066249</v>
+      </c>
+      <c r="O30">
+        <v>0.1143044808363333</v>
+      </c>
+      <c r="P30">
+        <v>0.1068381917660417</v>
+      </c>
+      <c r="Q30">
+        <v>0.1775130430996667</v>
+      </c>
+      <c r="R30">
+        <v>1.065078258598</v>
+      </c>
+      <c r="S30">
+        <v>0.0002796192306063894</v>
+      </c>
+      <c r="T30">
+        <v>0.0003135206716007337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.413647666666666</v>
-      </c>
-      <c r="H25">
-        <v>7.240943</v>
-      </c>
-      <c r="I25">
-        <v>0.02060056159661214</v>
-      </c>
-      <c r="J25">
-        <v>0.02364761233573806</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.839444333333333</v>
-      </c>
-      <c r="N25">
-        <v>8.518333</v>
-      </c>
-      <c r="O25">
-        <v>0.2340592040300573</v>
-      </c>
-      <c r="P25">
-        <v>0.3089337888798266</v>
-      </c>
-      <c r="Q25">
-        <v>6.853418189779888</v>
-      </c>
-      <c r="R25">
-        <v>61.680763708019</v>
-      </c>
-      <c r="S25">
-        <v>0.004821751049875203</v>
-      </c>
-      <c r="T25">
-        <v>0.007305546476840884</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.3329673333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.998902</v>
+      </c>
+      <c r="I31">
+        <v>0.002446266572933057</v>
+      </c>
+      <c r="J31">
+        <v>0.002934537419795469</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.1474133333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.44224</v>
+      </c>
+      <c r="O31">
+        <v>0.03160613428011658</v>
+      </c>
+      <c r="P31">
+        <v>0.0443124654059364</v>
+      </c>
+      <c r="Q31">
+        <v>0.04908382449777777</v>
+      </c>
+      <c r="R31">
+        <v>0.44175442048</v>
+      </c>
+      <c r="S31">
+        <v>7.731702978908281E-05</v>
+      </c>
+      <c r="T31">
+        <v>0.0001300365878971126</v>
       </c>
     </row>
   </sheetData>
